--- a/medicine/Enfance/Enfant_à_clé/Enfant_à_clé.xlsx
+++ b/medicine/Enfance/Enfant_à_clé/Enfant_à_clé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enfant_%C3%A0_cl%C3%A9</t>
+          <t>Enfant_à_clé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un enfant à clé (en anglais latchkey kid[1]), est un écolier dont les parents travaillent et qui porte la clé de son domicile sur lui, pour pouvoir rentrer à la maison après la classe. Plus généralement, il s’agit d’un enfant laissé seul à la maison, sans surveillance parentale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un enfant à clé (en anglais latchkey kid), est un écolier dont les parents travaillent et qui porte la clé de son domicile sur lui, pour pouvoir rentrer à la maison après la classe. Plus généralement, il s’agit d’un enfant laissé seul à la maison, sans surveillance parentale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enfant_%C3%A0_cl%C3%A9</t>
+          <t>Enfant_à_clé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’expression anglaise vient de l’image fréquente d’un enfant avec une clé accrochée autour du cou. Le terme serait né d'un documentaire de la NBC en 1944[3], en raison du phénomène des enfants laissés seuls à la maison, devenu courant pendant et après la Seconde Guerre mondiale, lorsque l'un des parents s'engageait dans les forces armées pour que l'autre puisse trouver un emploi[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’expression anglaise vient de l’image fréquente d’un enfant avec une clé accrochée autour du cou. Le terme serait né d'un documentaire de la NBC en 1944, en raison du phénomène des enfants laissés seuls à la maison, devenu courant pendant et après la Seconde Guerre mondiale, lorsque l'un des parents s'engageait dans les forces armées pour que l'autre puisse trouver un emploi.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enfant_%C3%A0_cl%C3%A9</t>
+          <t>Enfant_à_clé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Recommandation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La psychologue pour enfants Florence Millot recommande de faire « un état des lieux en observant son enfant », avant de le laisser régulièrement seul à la maison. Il doit être capable de reconnaître un danger et d'aller chercher de l'aide auprès d'un adulte, ce qui est rarement le cas avant 8 ou 9 ans[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La psychologue pour enfants Florence Millot recommande de faire « un état des lieux en observant son enfant », avant de le laisser régulièrement seul à la maison. Il doit être capable de reconnaître un danger et d'aller chercher de l'aide auprès d'un adulte, ce qui est rarement le cas avant 8 ou 9 ans.
 </t>
         </is>
       </c>
